--- a/excel/xiaomi_redmi.xlsx
+++ b/excel/xiaomi_redmi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9636F-D4A6-47BE-8102-2ADC1E8DC8C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C50D8BD-E8FE-448F-B8D3-9FCFD26D062C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="140">
   <si>
     <t>Модель</t>
   </si>
@@ -376,6 +376,81 @@
   </si>
   <si>
     <t>redmi_note_10</t>
+  </si>
+  <si>
+    <t>2020, Апрель 30</t>
+  </si>
+  <si>
+    <t>162.3 Х 77.2 Х 8.9 мм</t>
+  </si>
+  <si>
+    <t>199 г</t>
+  </si>
+  <si>
+    <t>Стеклянная передняя панель (Gorilla Glass 5), пластиковая рама</t>
+  </si>
+  <si>
+    <t>Forest Green, Midnight Grey, Polar White</t>
+  </si>
+  <si>
+    <t>5020 мАч, Неизменяемый, Li-Po</t>
+  </si>
+  <si>
+    <t>$ 150</t>
+  </si>
+  <si>
+    <t>6.53" (дюйма)</t>
+  </si>
+  <si>
+    <t>104.7 cm2</t>
+  </si>
+  <si>
+    <t>19.5;9</t>
+  </si>
+  <si>
+    <t>83.5%</t>
+  </si>
+  <si>
+    <t>1080 x 2340 px</t>
+  </si>
+  <si>
+    <t>48 MP, f/1.8, 26mm (широкая), 1/2.0'', 0.8µm, PDAF
+8 MP, f/2.2, 118° (сверхширокая), 1/4.0'', 1.12µm
+2 MP, f/2.4, (макро камера), AF
+2 MP, f/2.4, (для измерения глубины)</t>
+  </si>
+  <si>
+    <t>13 MP, Одна камера</t>
+  </si>
+  <si>
+    <t>13 MP, f/2.3, 29mm (standart), 1/3.1'', 1.12µm</t>
+  </si>
+  <si>
+    <t>Android 10; MIUI 11</t>
+  </si>
+  <si>
+    <t>MediaTek Helio G85 (12nm)</t>
+  </si>
+  <si>
+    <t>8 ядерный (2x2.0 GHz Cortex-A75 + 6x1.8 GHz Cortex-A55)</t>
+  </si>
+  <si>
+    <t>Mali-G52 MC2</t>
+  </si>
+  <si>
+    <t>64GB 3GB RAM, 128GB 4GB RAM</t>
+  </si>
+  <si>
+    <t>Да (market/зависит от региона)M2003J15SG (Да); M20</t>
+  </si>
+  <si>
+    <t>2020, Март 12</t>
+  </si>
+  <si>
+    <t>Tropical Green, Glacier White, Interstellar Gray</t>
+  </si>
+  <si>
+    <t>$ 250</t>
   </si>
 </sst>
 </file>
@@ -628,103 +703,94 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1016,469 +1082,695 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="181.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="3" customWidth="1"/>
-    <col min="3" max="8" width="19.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="2" customWidth="1"/>
-    <col min="10" max="19" width="19.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="19.140625" style="12" customWidth="1"/>
-    <col min="21" max="28" width="29.85546875" style="13" customWidth="1"/>
-    <col min="29" max="38" width="66.85546875" style="15" customWidth="1"/>
-    <col min="39" max="48" width="28.28515625" style="16" customWidth="1"/>
-    <col min="49" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="17" customWidth="1"/>
+    <col min="3" max="8" width="19.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="4" customWidth="1"/>
+    <col min="10" max="19" width="19.140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.140625" style="2" customWidth="1"/>
+    <col min="21" max="28" width="29.85546875" style="3" customWidth="1"/>
+    <col min="29" max="38" width="66.85546875" style="21" customWidth="1"/>
+    <col min="39" max="48" width="28.28515625" style="22" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="28.5" customHeight="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:48" ht="23.25" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="26" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="31" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="32" t="s">
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="23" t="s">
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="25"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="14"/>
+      <c r="AV1" s="15"/>
     </row>
-    <row r="2" spans="1:48" ht="30.75" customHeight="1">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:48" ht="33.75" customHeight="1">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AG2" s="15" t="s">
+      <c r="AG2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="15" t="s">
+      <c r="AH2" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AI2" s="15" t="s">
+      <c r="AI2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AJ2" s="15" t="s">
+      <c r="AJ2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AK2" s="15" t="s">
+      <c r="AK2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AL2" s="15" t="s">
+      <c r="AL2" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="AN2" s="16" t="s">
+      <c r="AN2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AO2" s="16" t="s">
+      <c r="AO2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AP2" s="16" t="s">
+      <c r="AP2" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AQ2" s="16" t="s">
+      <c r="AQ2" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="AR2" s="16" t="s">
+      <c r="AR2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AS2" s="16" t="s">
+      <c r="AS2" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AT2" s="16" t="s">
+      <c r="AT2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AU2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AV2" s="16" t="s">
+      <c r="AV2" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:48" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="17"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="14"/>
+      <c r="C3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB3" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD3" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH3" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI3" s="21">
+        <v>235532</v>
+      </c>
+      <c r="AJ3" s="21">
+        <v>205832</v>
+      </c>
+      <c r="AK3" s="21">
+        <v>365</v>
+      </c>
+      <c r="AL3" s="21">
+        <v>1355</v>
+      </c>
+      <c r="AM3" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN3" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO3" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP3" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ3" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT3" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU3" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AV3" s="22" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" ht="135">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="20" t="s">
+      <c r="V4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="W4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="Y4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Z4" s="13" t="s">
+      <c r="Z4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" s="21" t="s">
+      <c r="AB4" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AD4" s="15" t="s">
+      <c r="AD4" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AE4" s="15" t="s">
+      <c r="AE4" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AF4" s="15" t="s">
+      <c r="AF4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AH4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="AI4" s="15">
+      <c r="AI4" s="21">
         <v>303943</v>
       </c>
-      <c r="AJ4" s="15">
+      <c r="AJ4" s="21">
         <v>278791</v>
       </c>
-      <c r="AK4" s="15">
+      <c r="AK4" s="21">
         <v>568</v>
       </c>
-      <c r="AL4" s="15">
+      <c r="AL4" s="21">
         <v>1693</v>
       </c>
-      <c r="AM4" s="16" t="s">
+      <c r="AM4" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="AN4" s="16" t="s">
+      <c r="AN4" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="AO4" s="16" t="s">
+      <c r="AO4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="AP4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ4" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR4" s="16" t="s">
+      <c r="AP4" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ4" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR4" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AS4" s="16" t="s">
+      <c r="AS4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="AT4" s="16" t="s">
+      <c r="AT4" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="AU4" s="16" t="s">
+      <c r="AU4" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="AV4" s="16" t="s">
+      <c r="AV4" s="22" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ5" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="6" spans="1:48">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A6" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="17" t="s">
         <v>20</v>
       </c>
+      <c r="AP6" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ6" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="7" spans="1:48">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
+      <c r="AP7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ7" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="8" spans="1:48">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="AP8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ8" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="9" spans="1:48">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
+      <c r="AP9" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ9" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="10" spans="1:48">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="17" t="s">
         <v>24</v>
       </c>
+      <c r="AP10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ10" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="11" spans="1:48">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="AP11" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ11" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="12" spans="1:48">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="AP12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ12" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="13" spans="1:48">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="17" t="s">
         <v>27</v>
       </c>
+      <c r="AP13" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ13" s="22" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="14" spans="1:48">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="17" t="s">
         <v>28</v>
+      </c>
+      <c r="AP14" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ14" s="22" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1491,8 +1783,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AB4" r:id="rId1" xr:uid="{C299C828-F282-44B2-AF81-E3F065507580}"/>
+    <hyperlink ref="X3" r:id="rId2" xr:uid="{787038C5-90FE-4B8B-97E0-E091AC532BCC}"/>
+    <hyperlink ref="AB3" r:id="rId3" xr:uid="{FF7A7E8A-5CE0-4067-B0FF-93A45BF1869D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/excel/xiaomi_redmi.xlsx
+++ b/excel/xiaomi_redmi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53852BB3-D026-4867-87D7-865F3B6E85F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F215C3-4244-4188-9E1D-422EC882682B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2001,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="181.5" customHeight="1"/>

--- a/excel/xiaomi_redmi.xlsx
+++ b/excel/xiaomi_redmi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7F215C3-4244-4188-9E1D-422EC882682B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B321BCA4-D850-4EA3-B503-3A873CE68F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Xiaomi" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="744">
   <si>
     <t>Модель</t>
   </si>
@@ -1330,6 +1330,1140 @@
   </si>
   <si>
     <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.ixbt.com%2Fnews%2F2021%2F09%2F05%2Fredmi-k30-ultra-60-xiaomi.html&amp;psig=AOvVaw1A8FecCRPh9sD9j4pbOmIH&amp;ust=1645254049117000&amp;source=images&amp;cd=vfe&amp;ved=0CAsQjRxqFwoTCNDz44vXiPYCFQAAAAAdAAAAABAY</t>
+  </si>
+  <si>
+    <t>Redmi K30S</t>
+  </si>
+  <si>
+    <t>2020, Октябрь 27</t>
+  </si>
+  <si>
+    <t>165.1 Х 76.4 Х 9.3 мм</t>
+  </si>
+  <si>
+    <t>216 г.</t>
+  </si>
+  <si>
+    <t>Cosmic Black, Lunar Silver</t>
+  </si>
+  <si>
+    <t>5000 мАч, Li-Po, Неизменяемый</t>
+  </si>
+  <si>
+    <t>330 EUR</t>
+  </si>
+  <si>
+    <t>85.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144Hz
+HDR10
+500 nits (typ)
+650 nits (peak)
+</t>
+  </si>
+  <si>
+    <t>64 MP, Тройная камера</t>
+  </si>
+  <si>
+    <t>64 MP, f/1.9, 26mm (широкая), 1/1.73'', 0.8µm, PDAF
+13 MP, f/2.4, 123˚ (сверхширокая), 1.12µm
+5 MP, f/2.4, (макро камера), AF</t>
+  </si>
+  <si>
+    <t>8K@24/30fps, 4K@30/60fps, 1080p@30/60/120/240/960fps; gyro-EIS</t>
+  </si>
+  <si>
+    <t>20 MP, f/2.2, 27mm (широкоугольная), 1/3.4'', 0.8µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GSM / CDMA / HSPA / EVDO / LTE / 5G</t>
+  </si>
+  <si>
+    <t>HSPA 42.2/5.76 Mbps, LTE-A, 5G (2+ Gbps DL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да</t>
+  </si>
+  <si>
+    <t>Да, с двухполосный A-GPS, GLONASS, BDS, GALILEO, QZSS, NavIC</t>
+  </si>
+  <si>
+    <t>USB Type-C 2.0, USB On-The-Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.1, A2DP, LE</t>
+  </si>
+  <si>
+    <t>XIAOMI BLACK SHARK 3</t>
+  </si>
+  <si>
+    <t>2020, Март 3</t>
+  </si>
+  <si>
+    <t>168.7 Х 77.3 Х 10.4 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 222 г.</t>
+  </si>
+  <si>
+    <t>Стеклянная передняя панель, алюминиевая задняя панель, алюминиевая рама</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lightning Black, Armor Gray, Star Silver</t>
+  </si>
+  <si>
+    <t>4720 мАч,  Неизменяемый, Li-Po</t>
+  </si>
+  <si>
+    <t>$ 550</t>
+  </si>
+  <si>
+    <t>82.4%</t>
+  </si>
+  <si>
+    <t>Always-on display
+90Hz refresh rate
+500 nits typ. brightness
+HDR10+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64 MP, Тройная камера</t>
+  </si>
+  <si>
+    <t>64 MP, f/1.8, 26mm (широкая), 1/1.72'', 0.8µm, PDAF
+13 MP, f/2.3, (сверхширокая)
+5 MP, f/2.2, (для измерения глубины)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160p@30/60fps, 1080p@30/60/240fps, 720p@1920fps</t>
+  </si>
+  <si>
+    <t>20 MP, f/2.2, (широкоугольная), 1/3'', 0.9µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDR</t>
+  </si>
+  <si>
+    <t>Android 10.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Qualcomm SM8250 Snapdragon 865 (7 nm+)</t>
+  </si>
+  <si>
+    <t>128GB 8GB RAM, 128GB 12GB RAM, 256GB 12GB RAM</t>
+  </si>
+  <si>
+    <t>5.0, A2DP, LE, aptX HD, aptX Adaptive</t>
+  </si>
+  <si>
+    <t>XIAOMI BLACK SHARK 3 PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 177.8 Х 83.3 Х 10.1 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 253 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Стеклянная передняя панель, алюминиевая задняя панель, алюминиевая рама</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Phantom Black, Armor Gray</t>
+  </si>
+  <si>
+    <t>5000 мАч,  Неизменяемый, Li-Po</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ 830</t>
+  </si>
+  <si>
+    <t>7.1" (дюйма)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 123.7 cm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19.5:9</t>
+  </si>
+  <si>
+    <t>83.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1440 x 3120 px</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 484 PPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always-on display
+90Hz refresh rate
+500 nits typ. brightness
+HDR10+
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LED вспышка, HDR, панорама</t>
+  </si>
+  <si>
+    <t>2160p@30/60fps, 1080p@30/60/240fps, 720p@1920fps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нет</t>
+  </si>
+  <si>
+    <t>256GB 8GB RAM, 512GB 12GB RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Две SIM-карты (Nano-SIM, двойной режим готовности)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.0, A2DP, LE, aptX HD, aptX Adaptive</t>
+  </si>
+  <si>
+    <t>XIAOMI BLACK SHARK 3S</t>
+  </si>
+  <si>
+    <t>2020, Июль 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 168.7 Х 77.3 Х 10.4 мм</t>
+  </si>
+  <si>
+    <t>222 г.</t>
+  </si>
+  <si>
+    <t>Sky Cloud Black, Crystal Blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4729 мАч, Неизменяемый, Li-Po</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 600 EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AMOLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  82.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1080 x 2400 px</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 395 PPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always-on display
+120Hz refresh rate
+500 nits
+HDR10+
+</t>
+  </si>
+  <si>
+    <t>64 MP, f/1.8, 26mm (широкая), 1/1.72'', 0.8µm, PDAF
+13 MP, f/2.3, 120˚ (сверхширокая)
+5 MP, f/2.2, (для измерения глубины)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4K@30/60fps, 1080p@30/60/240fps, 720p@1920fps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 MP, Одна камера</t>
+  </si>
+  <si>
+    <t>20 MP, f/2.0, (широкоугольная), 1/3'', 0.9µm</t>
+  </si>
+  <si>
+    <t>128GB 12GB RAM, 256GB 12GB RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0, Type-C 1.0 реверсивный разъем</t>
+  </si>
+  <si>
+    <t>XIAOMI MI 10</t>
+  </si>
+  <si>
+    <t>2020, Февраль 13</t>
+  </si>
+  <si>
+    <t>162.5 Х 74.8 Х 9 мм</t>
+  </si>
+  <si>
+    <t>Стеклянная передняя панель (Gorilla Glass 5), задняя стеклянная панель, алюминиевая рама</t>
+  </si>
+  <si>
+    <t>Coral Green, Twilight Grey, Peach Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4780 мАч,  Неизменяемый, Li-Po</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ 900</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Super AMOLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 109.2 cm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1080 x 2340 px</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 386 PPI</t>
+  </si>
+  <si>
+    <t>HDR10+
+90Hz refresh rate
+500 nits typ. brightness</t>
+  </si>
+  <si>
+    <t>108 MP, Четверная камера</t>
+  </si>
+  <si>
+    <t>108 MP, f/1.7, (широкая), 1/1.33", 1.6μm 4-in-1 Super Pixels, PDAF, OIS
+13 MP, f/2.4, 12mm (сверхширокая)
+2 MP, f/2.4, (макро камера)
+2 MP, f/2.4, (для измерения глубины)</t>
+  </si>
+  <si>
+    <t>4320p@30fps, 2160p@30/60fps, 1080p@30/60fps; gyro-EIS, slow mo 720P/1080 P120fps</t>
+  </si>
+  <si>
+    <t>20 MP, f/2.0, (широкоугольная), 1/3", 0.9µm</t>
+  </si>
+  <si>
+    <t>1080p@30fps, 720P@30/120fps</t>
+  </si>
+  <si>
+    <t>128GB 8GB RAM, 256GB 8GB RAM, 256GB 12GB RAM</t>
+  </si>
+  <si>
+    <t>GSM / HSPA / LTE / 5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HSPA 42.2/5.76 Mbps, LTE-A, 5G (2+ Gbps DL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wi-Fi 802.11 a/b/g/n/ac/ax, двухполосный, Wi-Fi Direct, DLNA, hotspot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.0, Type-C 1.0 реверсивный разъем, USB On-The-Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.1, A2DP, LE, aptX HD, aptX Adaptive</t>
+  </si>
+  <si>
+    <t>XIAOMI MI 10 LITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2020, Март 27</t>
+  </si>
+  <si>
+    <t>163.7 Х 74.8 Х 7.9 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 192 г.</t>
+  </si>
+  <si>
+    <t>Aurora Blue, Cosmic Gray, Dream White</t>
+  </si>
+  <si>
+    <t>4160 мАч,  Неизменяемый, Li-Po</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.57" (дюйма)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 104.2 cm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 401 PPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">430 nits typ. brightness
+HDR10+
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48 MP, Четверная камера</t>
+  </si>
+  <si>
+    <t>48 MP, f/1.8, 26mm (широкая), 1/2.0", 0.8µm, PDAF
+8 MP, f/2.2, 15mm, 120˚ (сверхширокая), 1/4.0", 1.12µm
+2 MP, f/2.4, (макро камера)
+2 MP, f/2.4, (для измерения глубины)</t>
+  </si>
+  <si>
+    <t>4K@30/60fps, 1080p@30/60/120/240/960fps, gyro-EIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16 MP, Одна камера</t>
+  </si>
+  <si>
+    <t>16 MP, f/2.5, (широкоугольная), 1/3.0", 1.0µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDR, панорама</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1080p@30fps, 720p@120fps</t>
+  </si>
+  <si>
+    <t>Qualcomm SDM765 Snapdragon 765G (7 nm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64GB 6GB RAM, 128GB 6GB RAM, 256GB 8GB RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GSM / HSPA / LTE / 5G</t>
+  </si>
+  <si>
+    <t>HSPA 42.2/5.76 Mbps, LTE-A, 5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Да, с двухполосный A-GPS, GLONASS, BDS, GALILEO, QZSS</t>
+  </si>
+  <si>
+    <t>XIAOMI MI 10 PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 162.5 Х 74.8 Х 9 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 208 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alpine White, Solstice Grey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ 950</t>
+  </si>
+  <si>
+    <t>89.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDR10+
+90Hz refresh rate
+500 nits typ. brightness
+</t>
+  </si>
+  <si>
+    <t>108 MP, f/1.7, (широкая), 1/1.33", 0.8µm, PDAF, лазерный автофокус, OIS
+8 MP, f/2.0, (телеобъектив), 1.0µm, PDAF, лазерный автофокус, OIS, 10x hybrid оптический зум
+12 MP, f/2.0, (портрет), 1/2.55", 1.4µm, dual pixel PDAF, 2x оптический зум
+20 MP, f/2.2, 13mm (сверхширокая)</t>
+  </si>
+  <si>
+    <t>тройная LED двутонная вспышка, HDR, панорама</t>
+  </si>
+  <si>
+    <t>4320p@30fps, 2160p@30/60fps, 1080p@30/60/120/240/960fps; gyro-EIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Android 10.0; MIUI 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adreno 650</t>
+  </si>
+  <si>
+    <t>256GB 8GB RAM, 256GB 12GB RAM, 512GB 12GB RAM</t>
+  </si>
+  <si>
+    <t>Wi-Fi 802.11 a/b/g/n/ac/ax, двухполосный, Wi-Fi Direct, DLNA, hotspot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1, A2DP, LE, aptX HD, aptX Adaptive
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XIAOMI MI 10 ULTRA </t>
+  </si>
+  <si>
+    <t>162.4 Х 75.1 Х 9.5 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Стеклянная передняя панель (Gorilla Glass 5), задняя стеклянная панель (Gorilla Glass 6), алюминиевая рама </t>
+  </si>
+  <si>
+    <t>Obsidian Black, Mercury Silver, Transparent Edition</t>
+  </si>
+  <si>
+    <t>4500 мАч,  Неизменяемый, Li-Ion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 650 EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 89.5%</t>
+  </si>
+  <si>
+    <t>HDR10+
+120Hz refresh rate
+800 nits typ. brightness</t>
+  </si>
+  <si>
+    <t>48 MP, f/1.9, 25mm (широкая), 1/1.32'', 1.2µm, PDAF, лазерный автофокус, OIS
+48 MP, f/4.1, 120mm (перископ телеобъектив), 1/2.0'', 0.8µm, PDAF, OIS, 5x оптический зум, 120x hybrid zoom
+12 MP, f/2.0, 50mm (телеобъектив), 1/2.55'', 1.4µm, Dual Pixel PDAF, 2x оптический зум
+20 MP, f/2.2, 128˚, 12mm (сверхширокая), 1/2.8'', 1.0µm, PDAF</t>
+  </si>
+  <si>
+    <t>8K@24fps, 4K@30/60fps, 1080p@30/60/120/240/960fps, gyro-EIS, HDR10 rec.</t>
+  </si>
+  <si>
+    <t>20 MP, f/2.3, (широкоугольная), 1/3.4'', 0.8µm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1080p@30fps, 720p@120fps, gyro-EIS</t>
+  </si>
+  <si>
+    <t>128GB 8GB RAM, 256GB 8GB RAM, 256GB 12GB RAM, 512GB 16GB RAM</t>
+  </si>
+  <si>
+    <t>Wi-Fi 802.11 a/b/g/n/ac/6, двухполосный, Wi-Fi Direct, DLNA, hotspot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.1, A2DP, LE, aptX HD</t>
+  </si>
+  <si>
+    <t>XIAOMI MI 10 YOUTH</t>
+  </si>
+  <si>
+    <t>2020, Апрель 27</t>
+  </si>
+  <si>
+    <t>164 Х 74.8 Х 7.9 мм</t>
+  </si>
+  <si>
+    <t>Blue, White, Black, Green, Orange/Peach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ 400</t>
+  </si>
+  <si>
+    <t>4160 мАч, Неизменяемый, Li-Po</t>
+  </si>
+  <si>
+    <t>6.57" (дюйма)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 430 nits typ. brightness
+HDR10+
+</t>
+  </si>
+  <si>
+    <t>48 MP, f/1.8, 26mm (широкая), 1/2.0", 0.8µm, PDAF
+8 MP, f/3.4, 122mm (перископ телеобъектив), PDAF, OIS, 5x оптический зум
+8 MP, f/2.2, 15mm, 120° (сверхширокая), 1/4.0", 1.12µm
+2 MP, f/2.4, (макро камера)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2160p@30fps, 1080p@30/60/120fps, 720p@960fps; gyro-EIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64GB 6GB RAM, 128GB 6GB RAM, 128GB 8GB RAM, 256GB 8GB RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.1, A2DP, LE, aptX Adaptive</t>
+  </si>
+  <si>
+    <t>XIAOMI MI 10T</t>
+  </si>
+  <si>
+    <t>2020, Сентябрь 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 165.1 Х 76.4 Х 9.3 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 216 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cosmic Black, Lunar Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5000 мАч, Li-Po, Неизменяемый</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 500 EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HDR10+
+144Hz refresh rate
+500 nits typ. brightness
+</t>
+  </si>
+  <si>
+    <t>8K@30fps, 4K@30/60fps, 1080p@30/60/120/240/960fps; gyro-EIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 128GB 6GB RAM, 128GB 8GB RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wi-Fi 802.11 a/b/g/n/ac/6, двухполосный, Wi-Fi Direct, hotspot</t>
+  </si>
+  <si>
+    <t>XIAOMI MI 10T LITE</t>
+  </si>
+  <si>
+    <t>165.4 Х 76.8 Х 9 мм</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 214 г.</t>
+  </si>
+  <si>
+    <t>Atlantic Blue, Pearl Gray, Rose Gold Beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4820 мАч, Li-Po, Неизменяемый</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 300 EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 84.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HDR10
+120Hz refresh rate
+450 nits typ. brightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64 MP, Четверная камера</t>
+  </si>
+  <si>
+    <t>64 MP, f/1.9, 26mm (широкая), 1/1.73", 0.8µm, PDAF
+8 MP, f/2.2, 120˚ (сверхширокая), 1/4.0", 1.12µm
+2 MP, f/2.4, (макро камера)
+2 MP, f/2.4, (для измерения глубины)</t>
+  </si>
+  <si>
+    <t>4K@30fps, 1080p@30/60/120/240fps, 720p@960fps; gyro-EIS</t>
+  </si>
+  <si>
+    <t>16 MP, f/2.5, 25mm (широкоугольная), 1/3.06'' 1.0µm</t>
+  </si>
+  <si>
+    <t>Qualcomm SM7225 Snapdragon 750G 5G (8 nm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  8 ядерный (2x2.2 GHz Kryo 570 + 6x1.8 GHz Kryo 570)</t>
+  </si>
+  <si>
+    <t>Adreno 619</t>
+  </si>
+  <si>
+    <t>microSDXC (использовать shared SIM слот)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 64GB 6GB RAM, 128GB 6GB RAM</t>
+  </si>
+  <si>
+    <t>Да, с двухполосный A-GPS, GLONASS, BDS, GALILEO</t>
+  </si>
+  <si>
+    <t>XIAOMI MI 10T PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 218 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Стеклянная передняя панель (Gorilla Glass 5), задняя стеклянная панель (Gorilla Glass 5), алюминиевая рама</t>
+  </si>
+  <si>
+    <t>Cosmic Black, Lunar Silver, Aurora Blue</t>
+  </si>
+  <si>
+    <t>500 EUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 108 MP, Тройная камера</t>
+  </si>
+  <si>
+    <t>108 MP, f/1.7, 26mm (широкая), 1/1.33'', 0.8µm, PDAF, OIS
+13 MP, f/2.4, 123˚ (сверхширокая), 1.12µm
+5 MP, f/2.4, (макро камера), AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8K@30fps, 4K@30/60fps, 1080p@30/60/120/240/960fps; gyro-EIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 128GB 8GB RAM, 256GB 8GB RAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1, A2DP, LE, aptX HD, aptX Adaptive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPHONE 6S </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015, Сентябрь
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.3 Х 67.1 Х 7.1 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стеклянная передняя панель, алюминиевый корпус
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space Gray, Silver, Gold, Rose Gold
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1715 мАч,  Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED-backlit IPS LCD
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">да, емкостный
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16M
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7" (дюйма)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.9 cm2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.6%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">750 x 1334 px
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">326 PPI
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ion-strengthened glass, олеофобное покрытие
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3D Touch
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 MP, Одна камера
+</t>
+  </si>
+  <si>
+    <t>12 MP, f/2.2, 29mm (стандартная), 1/3'', 1.22µm, PDAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">двойная LED двутонная вспышка, HDR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2160p@30fps, 1080p@60fps,1080p@120fps, 720p@240fps
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 MP, Одна камера
+</t>
+  </si>
+  <si>
+    <t>5 MP, f/2.2, 31mm (стандартная)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face detection, HDR, панорама
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080p@30fps
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS 9, обновить до iOS 12.1.3
+</t>
+  </si>
+  <si>
+    <t>Apple A9 (14 nm)</t>
+  </si>
+  <si>
+    <t>2 ядерный 1.84 GHz Twister</t>
+  </si>
+  <si>
+    <t>PowerVR GT7600 (six-core graphics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/32/64/128 GB, 2 GB RAM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133981
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172030
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">971
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nano-SIM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM / CDMA / HSPA / EVDO / LTE
+</t>
+  </si>
+  <si>
+    <t>HSPA 42.2/5.76 Mbps, LTE-A (2CA) Cat6 300/50 Mbps, EV-DO Rev.A 3.1 Mbps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wi-Fi 802.11 a/b/g/n/ac, двухполосный, hotspot
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да, с A-GPS, GLONASS, GALILEO, QZSS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да (Apple Pay only)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0, proprietary реверсивный разъем
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2, A2DP, LE
+</t>
+  </si>
+  <si>
+    <t>IPHONE 6S PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">158.2 Х 77.9 Х 7.3 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2750 мАч,  Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">470 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5" (дюйма)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83.4 cm2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67.7%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080 x 1920 px
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401 PPI
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133258
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">171835
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">535
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">983
+</t>
+  </si>
+  <si>
+    <t>IPHONE 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016, Сентябрь
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jet Black, Black, Silver, Gold, Rose Gold, Red
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1960 мАч,  Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">550 EUR
+</t>
+  </si>
+  <si>
+    <t>Wide color gamut
+3D Touch display &amp; home button</t>
+  </si>
+  <si>
+    <t>12 MP, f/1.8, 28mm (широкая), 1/3'', OIS, PDAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">четворная LED двутонная вспышка, HDR
+</t>
+  </si>
+  <si>
+    <t>7 MP, Одна камера</t>
+  </si>
+  <si>
+    <t>7 MP, f/2.2, 32mm (стандартная)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS 10.0.1, обновить до iOS 12.1.3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apple A10 Fusion (16 nm)</t>
+  </si>
+  <si>
+    <t>4 ядерный 2.34 GHz (2x Hurricane + 2x Zephyr)</t>
+  </si>
+  <si>
+    <t>PowerVR Series7XT Plus (six-core graphics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32/128/256 GB, 2 GB RAM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">729
+</t>
+  </si>
+  <si>
+    <t>IPHONE 7 PLUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стеклянная передняя панель, body
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2900 мАч,  Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">690 EUR
+</t>
+  </si>
+  <si>
+    <t>12 MP, f/1.8, 28mm (широкая), 1/3'', OIS, PDAF
+12 MP, f/2.8, 56mm (телеобъектив), 1/3.6'', 2x оптический зум, AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32/128/256 GB, 3 GB RAM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">181234
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235957
+</t>
+  </si>
+  <si>
+    <t>IPHONE SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016, Март
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123.8 Х 58.6 Х 7.6 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4" (дюйма)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.1 cm2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60.8%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">640 x 1136 px
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 MP, f/2.2, 29mm (стандартная), 1/3'', 1.22µm, PDAF
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2 MP, Одна камера
+</t>
+  </si>
+  <si>
+    <t>1.2 MP, f/2.4, 31mm (стандартная)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">720p@30fps
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS 9.3.2, обновить до iOS 12.1.3
+</t>
+  </si>
+  <si>
+    <t>IPHONE 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017, Сентябрь
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138.4 Х 67.3 Х 7.3 мм
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148 г.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Передняя и задняя панель из стекло, алюминиевая рама
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silver, Space Gray, Gold, Red
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1821 мАч,  Неизменяемый, Li-Ion
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700 EUR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.4%
+</t>
+  </si>
+  <si>
+    <t>Wide color gamut
+3D Touch display &amp; home button
+True-tone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 MP, Одна камера
+</t>
+  </si>
+  <si>
+    <t>12 MP, f/1.8, 28mm (широкая), OIS, PDAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 MP, Одна камера
+</t>
+  </si>
+  <si>
+    <t>7 MP, f/2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iOS 11, обновить до iOS 12.1.3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apple A11 Bionic (10 nm)</t>
+  </si>
+  <si>
+    <t>6 ядерный (2x Monsoon + 4x Mistral)</t>
+  </si>
+  <si>
+    <t>Apple GPU (three-core graphics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64/256 GB, 2 GB RAM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">909
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSM / HSPA / LTE
+</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +2521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1426,6 +2560,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,7 +2744,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1681,6 +2827,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1709,6 +2867,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1999,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV10"/>
+  <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV21" sqref="AV21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="181.5" customHeight="1"/>
@@ -2020,64 +3202,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="23.25" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="36" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="37" t="s">
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="28" t="s">
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="29"/>
-      <c r="AV1" s="30"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="34"/>
     </row>
     <row r="2" spans="1:48" ht="33.75" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -2998,8 +4180,8 @@
       <c r="N8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="19">
-        <v>0.83958333333333324</v>
+      <c r="O8" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>182</v>
@@ -3144,8 +4326,8 @@
       <c r="N9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="19">
-        <v>0.83958333333333324</v>
+      <c r="O9" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>204</v>
@@ -3290,8 +4472,8 @@
       <c r="N10" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="O10" s="19">
-        <v>0.83958333333333324</v>
+      <c r="O10" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>204</v>
@@ -3391,6 +4573,1620 @@
       </c>
       <c r="AV10" s="13" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF11" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG11" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AM11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN11" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="AO11" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ11" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR11" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS11" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="AT11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU11" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="AV11" s="13" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD12" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE12" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF12" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH12" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="AJ12" s="30">
+        <v>575808</v>
+      </c>
+      <c r="AM12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN12" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO12" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR12" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV12" s="13" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC13" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF13" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AH13" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>609523</v>
+      </c>
+      <c r="AK13" s="30">
+        <v>999</v>
+      </c>
+      <c r="AL13" s="12">
+        <v>3493</v>
+      </c>
+      <c r="AM13" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN13" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO13" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP13" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ13" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR13" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS13" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AT13" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="AU13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV13" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC14" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD14" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE14" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF14" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH14" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="AM14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN14" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO14" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="AP14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR14" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AT14" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="AU14" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="AV14" s="13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF15" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="AJ15" s="12">
+        <v>565675</v>
+      </c>
+      <c r="AM15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN15" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="AO15" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="AP15" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ15" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR15" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="AS15" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT15" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU15" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="AV15" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="O16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD16" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE16" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF16" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="AG16" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>351000</v>
+      </c>
+      <c r="AJ16" s="12">
+        <v>323257</v>
+      </c>
+      <c r="AK16" s="12">
+        <v>600</v>
+      </c>
+      <c r="AL16" s="12">
+        <v>1800</v>
+      </c>
+      <c r="AM16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN16" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="AO16" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="AP16" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ16" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS16" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="AT16" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU16" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV16" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="AD17" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF17" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="AG17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH17" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="AJ17" s="12">
+        <v>593769</v>
+      </c>
+      <c r="AM17" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN17" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="AO17" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="AP17" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ17" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR17" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="AS17" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT17" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU17" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV17" s="13" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC18" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD18" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE18" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF18" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH18" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="AI18" s="12">
+        <v>737118</v>
+      </c>
+      <c r="AK18" s="30">
+        <v>900</v>
+      </c>
+      <c r="AL18" s="12">
+        <v>3360</v>
+      </c>
+      <c r="AM18" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN18" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO18" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="AP18" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ18" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT18" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU18" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV18" s="13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD19" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="AE19" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="AF19" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG19" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH19" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="AM19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN19" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO19" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="AP19" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ19" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS19" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT19" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU19" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="AV19" s="13" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB20" s="29" t="s">
+        <v>536</v>
+      </c>
+      <c r="AC20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD20" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE20" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF20" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG20" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="AH20" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN20" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="AO20" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="AP20" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ20" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR20" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="AS20" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT20" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU20" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="AV20" s="13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC21" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD21" s="30" t="s">
+        <v>610</v>
+      </c>
+      <c r="AE21" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="AF21" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="AG21" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="AH21" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="AJ21" s="30">
+        <v>350425</v>
+      </c>
+      <c r="AK21" s="12">
+        <v>666</v>
+      </c>
+      <c r="AL21" s="12">
+        <v>2105</v>
+      </c>
+      <c r="AM21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN21" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="AO21" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="AP21" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ21" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS21" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="AT21" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU21" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="AV21" s="13" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" ht="181.5" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC22" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD22" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE22" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF22" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG22" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="AH22" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="AJ22" s="12">
+        <v>585996</v>
+      </c>
+      <c r="AK22" s="12">
+        <v>888</v>
+      </c>
+      <c r="AL22" s="12">
+        <v>3232</v>
+      </c>
+      <c r="AM22" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="AN22" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="AO22" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="AP22" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ22" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AR22" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="AS22" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="AT22" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU22" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="AV22" s="13" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -3411,22 +6207,25 @@
     <hyperlink ref="AB7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="AB8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="AB9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B3" r:id="rId10" display="https://www.google.com/imgres?imgurl=https%3A%2F%2Fi01.appmifile.com%2Fwebfile%2Fglobalimg%2FCindy%2FJ15SGreen.png&amp;imgrefurl=https%3A%2F%2Fwww.mi.com%2Fru%2Fredmi-note-9%2F&amp;tbnid=iSlY5pqbumXwMM&amp;vet=12ahUKEwjJ0cui1oj2AhXDVMAKHZLRBtkQMygAegUIARDCAQ..i&amp;docid=lT9bsDcooZpZPM&amp;w=800&amp;h=800&amp;q=Redmi%20Note%209&amp;ved=2ahUKEwjJ0cui1oj2AhXDVMAKHZLRBtkQMygAegUIARDCAQ" xr:uid="{27E721D9-87F3-4DB6-A6F0-C75012031DB9}"/>
-    <hyperlink ref="B4" r:id="rId11" xr:uid="{F1D7B9CF-BCBA-45D4-9F07-6718D3EA8CD4}"/>
-    <hyperlink ref="B5" r:id="rId12" xr:uid="{D6960A25-699B-4695-BA56-69D4B64503F4}"/>
-    <hyperlink ref="B6" r:id="rId13" xr:uid="{DF3134B3-4D47-4E01-A885-18B8510CECF7}"/>
-    <hyperlink ref="B7" r:id="rId14" xr:uid="{3CF66FFD-FA66-4594-AB87-AE9383DD4B2E}"/>
-    <hyperlink ref="B8" r:id="rId15" xr:uid="{A6286A2F-9342-4714-9AD4-5F66CE2E5520}"/>
-    <hyperlink ref="B9" r:id="rId16" xr:uid="{0110500D-B944-4B42-B433-FB5622C9EFA0}"/>
-    <hyperlink ref="B10" r:id="rId17" xr:uid="{DFD70ED4-BE27-4D7A-A2E7-7C84EB564FE6}"/>
+    <hyperlink ref="B3" r:id="rId10" display="https://www.google.com/imgres?imgurl=https%3A%2F%2Fi01.appmifile.com%2Fwebfile%2Fglobalimg%2FCindy%2FJ15SGreen.png&amp;imgrefurl=https%3A%2F%2Fwww.mi.com%2Fru%2Fredmi-note-9%2F&amp;tbnid=iSlY5pqbumXwMM&amp;vet=12ahUKEwjJ0cui1oj2AhXDVMAKHZLRBtkQMygAegUIARDCAQ..i&amp;docid=lT9bsDcooZpZPM&amp;w=800&amp;h=800&amp;q=Redmi%20Note%209&amp;ved=2ahUKEwjJ0cui1oj2AhXDVMAKHZLRBtkQMygAegUIARDCAQ" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B4" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AB12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AB13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AB14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F267183-F5D0-4A56-B25A-58A8993D1485}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AU249"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -3439,63 +6238,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="36" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="28" t="s">
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34"/>
     </row>
     <row r="2" spans="1:47" ht="30">
       <c r="A2" s="22" t="s">
@@ -16411,12 +19210,12 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AA4" r:id="rId1" xr:uid="{03EA6285-417D-402B-8069-C1A1EC105287}"/>
-    <hyperlink ref="AA3" r:id="rId2" xr:uid="{D0C634D6-7219-445A-A7CD-77FC3090CF89}"/>
-    <hyperlink ref="AA6" r:id="rId3" xr:uid="{68075B8C-5565-4FFF-B74F-7029404811F6}"/>
-    <hyperlink ref="AA5" r:id="rId4" xr:uid="{414C739B-2043-40C2-9A3D-F980A8FA3015}"/>
-    <hyperlink ref="AA7" r:id="rId5" xr:uid="{30542467-240F-408A-9097-7CD680BF75CD}"/>
-    <hyperlink ref="AA8" r:id="rId6" xr:uid="{9EAB0C69-07DC-4A96-868D-51A17B1A1E4D}"/>
+    <hyperlink ref="AA4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="AA3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="AA6" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="AA5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="AA7" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="AA8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -16424,7 +19223,1097 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828DB063-07AF-43C3-A461-5A3A173D8B5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AU8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:47" ht="15" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+    </row>
+    <row r="2" spans="1:47" ht="90">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE2" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH2" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI2" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK2" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL2" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM2" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN2" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO2" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP2" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ2" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR2" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS2" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT2" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" ht="165">
+      <c r="A3" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="U3" s="46" t="s">
+        <v>646</v>
+      </c>
+      <c r="V3" s="46" t="s">
+        <v>647</v>
+      </c>
+      <c r="W3" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="X3" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y3" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z3" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA3" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB3" s="47" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC3" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD3" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE3" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="AF3" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG3" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH3" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="AI3" s="47" t="s">
+        <v>659</v>
+      </c>
+      <c r="AJ3" s="47">
+        <v>531</v>
+      </c>
+      <c r="AK3" s="47" t="s">
+        <v>660</v>
+      </c>
+      <c r="AL3" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="AM3" s="48" t="s">
+        <v>662</v>
+      </c>
+      <c r="AN3" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="AO3" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP3" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ3" s="48" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR3" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="AS3" s="48" t="s">
+        <v>666</v>
+      </c>
+      <c r="AT3" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="AU3" s="48" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" ht="165">
+      <c r="A4" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="U4" s="46" t="s">
+        <v>646</v>
+      </c>
+      <c r="V4" s="46" t="s">
+        <v>647</v>
+      </c>
+      <c r="W4" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="X4" s="46" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y4" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z4" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA4" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB4" s="47" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC4" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD4" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE4" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="AF4" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG4" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH4" s="47" t="s">
+        <v>679</v>
+      </c>
+      <c r="AI4" s="47" t="s">
+        <v>680</v>
+      </c>
+      <c r="AJ4" s="47" t="s">
+        <v>681</v>
+      </c>
+      <c r="AK4" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="AL4" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="AM4" s="48" t="s">
+        <v>662</v>
+      </c>
+      <c r="AN4" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="AO4" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP4" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ4" s="48" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR4" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="AS4" s="48" t="s">
+        <v>666</v>
+      </c>
+      <c r="AT4" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="AU4" s="48" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="165">
+      <c r="A5" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="T5" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="U5" s="46" t="s">
+        <v>690</v>
+      </c>
+      <c r="V5" s="46" t="s">
+        <v>691</v>
+      </c>
+      <c r="W5" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="X5" s="46" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y5" s="46" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z5" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA5" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB5" s="47" t="s">
+        <v>694</v>
+      </c>
+      <c r="AC5" s="47" t="s">
+        <v>695</v>
+      </c>
+      <c r="AD5" s="47" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE5" s="47" t="s">
+        <v>697</v>
+      </c>
+      <c r="AF5" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG5" s="47" t="s">
+        <v>698</v>
+      </c>
+      <c r="AH5" s="47">
+        <v>178965</v>
+      </c>
+      <c r="AI5" s="47">
+        <v>218894</v>
+      </c>
+      <c r="AJ5" s="47" t="s">
+        <v>699</v>
+      </c>
+      <c r="AK5" s="47">
+        <v>1289</v>
+      </c>
+      <c r="AL5" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="AM5" s="48" t="s">
+        <v>662</v>
+      </c>
+      <c r="AN5" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="AO5" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP5" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ5" s="48" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR5" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="AS5" s="48" t="s">
+        <v>666</v>
+      </c>
+      <c r="AT5" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="AU5" s="48" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="255">
+      <c r="A6" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="T6" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="U6" s="46" t="s">
+        <v>705</v>
+      </c>
+      <c r="V6" s="46" t="s">
+        <v>691</v>
+      </c>
+      <c r="W6" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="X6" s="46" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y6" s="46" t="s">
+        <v>693</v>
+      </c>
+      <c r="Z6" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA6" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB6" s="47" t="s">
+        <v>694</v>
+      </c>
+      <c r="AC6" s="47" t="s">
+        <v>695</v>
+      </c>
+      <c r="AD6" s="47" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE6" s="47" t="s">
+        <v>697</v>
+      </c>
+      <c r="AF6" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG6" s="47" t="s">
+        <v>706</v>
+      </c>
+      <c r="AH6" s="47" t="s">
+        <v>707</v>
+      </c>
+      <c r="AI6" s="47" t="s">
+        <v>708</v>
+      </c>
+      <c r="AJ6" s="47">
+        <v>725</v>
+      </c>
+      <c r="AK6" s="47">
+        <v>1295</v>
+      </c>
+      <c r="AL6" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="AM6" s="48" t="s">
+        <v>662</v>
+      </c>
+      <c r="AN6" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="AO6" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP6" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ6" s="48" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR6" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="AS6" s="48" t="s">
+        <v>666</v>
+      </c>
+      <c r="AT6" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="AU6" s="48" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="165">
+      <c r="A7" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>714</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>716</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>689</v>
+      </c>
+      <c r="T7" s="46" t="s">
+        <v>645</v>
+      </c>
+      <c r="U7" s="46" t="s">
+        <v>718</v>
+      </c>
+      <c r="V7" s="46" t="s">
+        <v>647</v>
+      </c>
+      <c r="W7" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="X7" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y7" s="46" t="s">
+        <v>720</v>
+      </c>
+      <c r="Z7" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA7" s="49" t="s">
+        <v>721</v>
+      </c>
+      <c r="AB7" s="47" t="s">
+        <v>722</v>
+      </c>
+      <c r="AC7" s="47" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD7" s="47" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE7" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="AF7" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG7" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="AH7" s="47">
+        <v>131789</v>
+      </c>
+      <c r="AI7" s="47">
+        <v>177368</v>
+      </c>
+      <c r="AJ7" s="47">
+        <v>541</v>
+      </c>
+      <c r="AK7" s="47">
+        <v>995</v>
+      </c>
+      <c r="AL7" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="AM7" s="48" t="s">
+        <v>662</v>
+      </c>
+      <c r="AN7" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="AO7" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP7" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ7" s="48" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR7" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="AS7" s="48" t="s">
+        <v>666</v>
+      </c>
+      <c r="AT7" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="AU7" s="48" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="165">
+      <c r="A8" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>731</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="T8" s="46" t="s">
+        <v>733</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>734</v>
+      </c>
+      <c r="V8" s="46" t="s">
+        <v>691</v>
+      </c>
+      <c r="W8" s="46" t="s">
+        <v>648</v>
+      </c>
+      <c r="X8" s="46" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y8" s="46" t="s">
+        <v>736</v>
+      </c>
+      <c r="Z8" s="46" t="s">
+        <v>651</v>
+      </c>
+      <c r="AA8" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB8" s="47" t="s">
+        <v>737</v>
+      </c>
+      <c r="AC8" s="47" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD8" s="47" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE8" s="47" t="s">
+        <v>740</v>
+      </c>
+      <c r="AF8" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG8" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="AH8" s="47">
+        <v>232308</v>
+      </c>
+      <c r="AI8" s="47">
+        <v>267441</v>
+      </c>
+      <c r="AJ8" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="AK8" s="47">
+        <v>1838</v>
+      </c>
+      <c r="AL8" s="48" t="s">
+        <v>661</v>
+      </c>
+      <c r="AM8" s="48" t="s">
+        <v>743</v>
+      </c>
+      <c r="AN8" s="48" t="s">
+        <v>663</v>
+      </c>
+      <c r="AO8" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP8" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ8" s="48" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR8" s="48" t="s">
+        <v>665</v>
+      </c>
+      <c r="AS8" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT8" s="48" t="s">
+        <v>667</v>
+      </c>
+      <c r="AU8" s="48" t="s">
+        <v>668</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AK1"/>
+    <mergeCell ref="AL1:AU1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AA3" r:id="rId1" xr:uid="{28D35193-C3AB-4A1A-A701-4694FDFE8EFF}"/>
+    <hyperlink ref="AA4" r:id="rId2" xr:uid="{99D80102-0EE7-4655-912D-9A6083F1D70A}"/>
+    <hyperlink ref="AA5" r:id="rId3" xr:uid="{D20321E4-3B79-42E2-A401-A57AA9F0AD0F}"/>
+    <hyperlink ref="AA6" r:id="rId4" xr:uid="{5039E6CC-D9AB-4122-A286-A7E21E0153C6}"/>
+    <hyperlink ref="AA7" r:id="rId5" xr:uid="{CC87BD8F-4078-41BF-A893-7826D18D86F5}"/>
+    <hyperlink ref="AA8" r:id="rId6" xr:uid="{DF168035-974D-47F7-84D4-A383E4809024}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16434,287 +20323,63 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="36" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="28" t="s">
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="30"/>
-    </row>
-    <row r="2" spans="1:47" ht="90">
-      <c r="A2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH2" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI2" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK2" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR2" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AK1"/>
-    <mergeCell ref="AL1:AU1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6068207F-0DA0-4EE1-A21C-874BD6769ACC}">
-  <dimension ref="A1:AU2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AU2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:47">
-      <c r="A1" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34"/>
     </row>
     <row r="2" spans="1:47" ht="90">
       <c r="A2" s="22" t="s">
@@ -16872,7 +20537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B7A509-2674-415E-A0A7-D34A34E78A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16882,63 +20547,63 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="36" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="28" t="s">
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34"/>
     </row>
     <row r="2" spans="1:47" ht="90">
       <c r="A2" s="22" t="s">
@@ -17096,7 +20761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6F6E6D-B66A-4A61-928B-0EE47603B302}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AU2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17106,63 +20771,63 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="36" t="s">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="37" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="28" t="s">
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="29"/>
-      <c r="AS1" s="29"/>
-      <c r="AT1" s="29"/>
-      <c r="AU1" s="30"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34"/>
     </row>
     <row r="2" spans="1:47" ht="90">
       <c r="A2" s="22" t="s">

--- a/excel/xiaomi_redmi.xlsx
+++ b/excel/xiaomi_redmi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\AiogramTemplate\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B321BCA4-D850-4EA3-B503-3A873CE68F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD41BC5-6566-4A81-B16F-88DDE2ECE9E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="664" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Xiaomi" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="744">
   <si>
     <t>Модель</t>
   </si>
@@ -2017,9 +2017,6 @@
     <t xml:space="preserve">5.1, A2DP, LE, aptX HD, aptX Adaptive </t>
   </si>
   <si>
-    <t xml:space="preserve">IPHONE 6S </t>
-  </si>
-  <si>
     <t xml:space="preserve">2015, Сентябрь
 </t>
   </si>
@@ -2182,9 +2179,6 @@
 </t>
   </si>
   <si>
-    <t>IPHONE 6S PLUS</t>
-  </si>
-  <si>
     <t xml:space="preserve">158.2 Х 77.9 Х 7.3 мм
 </t>
   </si>
@@ -2237,9 +2231,6 @@
 </t>
   </si>
   <si>
-    <t>IPHONE 7</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016, Сентябрь
 </t>
   </si>
@@ -2298,9 +2289,6 @@
 </t>
   </si>
   <si>
-    <t>IPHONE 7 PLUS</t>
-  </si>
-  <si>
     <t xml:space="preserve">188 г.
 </t>
   </si>
@@ -2333,9 +2321,6 @@
 </t>
   </si>
   <si>
-    <t>IPHONE SE</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016, Март
 </t>
   </si>
@@ -2385,9 +2370,6 @@
   <si>
     <t xml:space="preserve">iOS 9.3.2, обновить до iOS 12.1.3
 </t>
-  </si>
-  <si>
-    <t>IPHONE 8</t>
   </si>
   <si>
     <t xml:space="preserve">2017, Сентябрь
@@ -2464,6 +2446,24 @@
   <si>
     <t xml:space="preserve">GSM / HSPA / LTE
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iPhone 6S </t>
+  </si>
+  <si>
+    <t>iPhone 6S PLUS</t>
+  </si>
+  <si>
+    <t>iPhone 7</t>
+  </si>
+  <si>
+    <t>iPhone7 PLUS</t>
+  </si>
+  <si>
+    <t>iPhone SE</t>
+  </si>
+  <si>
+    <t>iPhone 8</t>
   </si>
 </sst>
 </file>
@@ -2744,7 +2744,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2839,6 +2839,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2879,18 +2894,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3183,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV21" sqref="AV21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="181.5" customHeight="1"/>
@@ -3202,64 +3205,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="23.25" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="35" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="40" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="41" t="s">
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="32" t="s">
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="34"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="39"/>
     </row>
     <row r="2" spans="1:48" ht="33.75" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -6238,63 +6241,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="35" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="40" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="41" t="s">
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="32" t="s">
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="34"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="39"/>
     </row>
     <row r="2" spans="1:47" ht="30">
       <c r="A2" s="22" t="s">
@@ -19224,1089 +19227,1099 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AU8"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:48" ht="15" customHeight="1">
+      <c r="A1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="35" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="43" t="s">
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="44" t="s">
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="45" t="s">
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="45"/>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-    </row>
-    <row r="2" spans="1:47" ht="90">
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+    </row>
+    <row r="2" spans="1:48" ht="90">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="L2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="M2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="N2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="P2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="R2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="S2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="T2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="46" t="s">
+      <c r="U2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="46" t="s">
+      <c r="V2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="W2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="46" t="s">
+      <c r="X2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="46" t="s">
+      <c r="Y2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="46" t="s">
+      <c r="Z2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="46" t="s">
+      <c r="AA2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="46" t="s">
+      <c r="AB2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="47" t="s">
+      <c r="AC2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="47" t="s">
+      <c r="AD2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="47" t="s">
+      <c r="AE2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="47" t="s">
+      <c r="AF2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="47" t="s">
+      <c r="AG2" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="47" t="s">
+      <c r="AH2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="47" t="s">
+      <c r="AI2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="47" t="s">
+      <c r="AJ2" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="47" t="s">
+      <c r="AK2" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="47" t="s">
+      <c r="AL2" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AL2" s="48" t="s">
+      <c r="AM2" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="AM2" s="48" t="s">
+      <c r="AN2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AN2" s="48" t="s">
+      <c r="AO2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AO2" s="48" t="s">
+      <c r="AP2" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AP2" s="48" t="s">
+      <c r="AQ2" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="AQ2" s="48" t="s">
+      <c r="AR2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="AR2" s="48" t="s">
+      <c r="AS2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="AS2" s="48" t="s">
+      <c r="AT2" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="AT2" s="48" t="s">
+      <c r="AU2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="AU2" s="48" t="s">
+      <c r="AV2" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="165">
+    <row r="3" spans="1:48" ht="180">
       <c r="A3" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="31" t="s">
         <v>633</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="K3" s="31" t="s">
         <v>634</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="L3" s="31" t="s">
         <v>635</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="M3" s="31" t="s">
         <v>636</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="N3" s="31" t="s">
         <v>637</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="O3" s="31" t="s">
         <v>638</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="P3" s="31" t="s">
         <v>639</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="Q3" s="31" t="s">
         <v>640</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="R3" s="31" t="s">
         <v>641</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="S3" s="31" t="s">
         <v>642</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="T3" s="31" t="s">
         <v>643</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="U3" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="T3" s="46" t="s">
+      <c r="V3" s="33" t="s">
         <v>645</v>
       </c>
-      <c r="U3" s="46" t="s">
+      <c r="W3" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="V3" s="46" t="s">
+      <c r="X3" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="W3" s="46" t="s">
+      <c r="Y3" s="33" t="s">
         <v>648</v>
       </c>
-      <c r="X3" s="46" t="s">
+      <c r="Z3" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="Y3" s="46" t="s">
+      <c r="AA3" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="AB3" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="AA3" s="49" t="s">
+      <c r="AC3" s="34" t="s">
         <v>652</v>
       </c>
-      <c r="AB3" s="47" t="s">
+      <c r="AD3" s="34" t="s">
         <v>653</v>
       </c>
-      <c r="AC3" s="47" t="s">
+      <c r="AE3" s="34" t="s">
         <v>654</v>
       </c>
-      <c r="AD3" s="47" t="s">
+      <c r="AF3" s="34" t="s">
         <v>655</v>
       </c>
-      <c r="AE3" s="47" t="s">
+      <c r="AG3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="34" t="s">
         <v>656</v>
       </c>
-      <c r="AF3" s="47" t="s">
+      <c r="AI3" s="34" t="s">
+        <v>657</v>
+      </c>
+      <c r="AJ3" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="AK3" s="34">
+        <v>531</v>
+      </c>
+      <c r="AL3" s="34" t="s">
+        <v>659</v>
+      </c>
+      <c r="AM3" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN3" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="AO3" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="AP3" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ3" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR3" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="AS3" s="35" t="s">
+        <v>664</v>
+      </c>
+      <c r="AT3" s="35" t="s">
+        <v>665</v>
+      </c>
+      <c r="AU3" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="AV3" s="35" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" ht="180">
+      <c r="A4" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>643</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>645</v>
+      </c>
+      <c r="W4" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y4" s="33" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z4" s="33" t="s">
+        <v>649</v>
+      </c>
+      <c r="AA4" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB4" s="36" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC4" s="34" t="s">
+        <v>652</v>
+      </c>
+      <c r="AD4" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE4" s="34" t="s">
+        <v>654</v>
+      </c>
+      <c r="AF4" s="34" t="s">
+        <v>655</v>
+      </c>
+      <c r="AG4" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="AG3" s="47" t="s">
-        <v>657</v>
-      </c>
-      <c r="AH3" s="47" t="s">
-        <v>658</v>
-      </c>
-      <c r="AI3" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="AJ3" s="47">
-        <v>531</v>
-      </c>
-      <c r="AK3" s="47" t="s">
+      <c r="AH4" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="AI4" s="34" t="s">
+        <v>677</v>
+      </c>
+      <c r="AJ4" s="34" t="s">
+        <v>678</v>
+      </c>
+      <c r="AK4" s="34" t="s">
+        <v>679</v>
+      </c>
+      <c r="AL4" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="AM4" s="35" t="s">
         <v>660</v>
       </c>
-      <c r="AL3" s="48" t="s">
+      <c r="AN4" s="35" t="s">
         <v>661</v>
       </c>
-      <c r="AM3" s="48" t="s">
+      <c r="AO4" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="AN3" s="48" t="s">
+      <c r="AP4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR4" s="35" t="s">
         <v>663</v>
       </c>
-      <c r="AO3" s="48" t="s">
+      <c r="AS4" s="35" t="s">
+        <v>664</v>
+      </c>
+      <c r="AT4" s="35" t="s">
+        <v>665</v>
+      </c>
+      <c r="AU4" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="AV4" s="35" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" ht="180">
+      <c r="A5" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="M5" s="31" t="s">
+        <v>636</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="U5" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="V5" s="33" t="s">
+        <v>687</v>
+      </c>
+      <c r="W5" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y5" s="33" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z5" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA5" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB5" s="36" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC5" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="AD5" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE5" s="34" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF5" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="AG5" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH5" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="AI5" s="34">
+        <v>178965</v>
+      </c>
+      <c r="AJ5" s="34">
+        <v>218894</v>
+      </c>
+      <c r="AK5" s="34" t="s">
+        <v>696</v>
+      </c>
+      <c r="AL5" s="34">
+        <v>1289</v>
+      </c>
+      <c r="AM5" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN5" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="AO5" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="AP5" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="AP3" s="48" t="s">
+      <c r="AQ5" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="AQ3" s="48" t="s">
+      <c r="AR5" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="AS5" s="35" t="s">
         <v>664</v>
       </c>
-      <c r="AR3" s="48" t="s">
+      <c r="AT5" s="35" t="s">
         <v>665</v>
       </c>
-      <c r="AS3" s="48" t="s">
+      <c r="AU5" s="35" t="s">
         <v>666</v>
       </c>
-      <c r="AT3" s="48" t="s">
+      <c r="AV5" s="35" t="s">
         <v>667</v>
       </c>
-      <c r="AU3" s="48" t="s">
+    </row>
+    <row r="6" spans="1:48" ht="270">
+      <c r="A6" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="4" spans="1:47" ht="165">
-      <c r="A4" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="P6" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q6" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>701</v>
+      </c>
+      <c r="W6" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z6" s="33" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA6" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB6" s="36" t="s">
+        <v>651</v>
+      </c>
+      <c r="AC6" s="34" t="s">
+        <v>691</v>
+      </c>
+      <c r="AD6" s="34" t="s">
+        <v>692</v>
+      </c>
+      <c r="AE6" s="34" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF6" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="AG6" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6" s="34" t="s">
+        <v>702</v>
+      </c>
+      <c r="AI6" s="34" t="s">
+        <v>703</v>
+      </c>
+      <c r="AJ6" s="34" t="s">
+        <v>704</v>
+      </c>
+      <c r="AK6" s="34">
+        <v>725</v>
+      </c>
+      <c r="AL6" s="34">
+        <v>1295</v>
+      </c>
+      <c r="AM6" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN6" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="AO6" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="AP6" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ6" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR6" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="AS6" s="35" t="s">
+        <v>664</v>
+      </c>
+      <c r="AT6" s="35" t="s">
+        <v>665</v>
+      </c>
+      <c r="AU6" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="AV6" s="35" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" ht="180">
+      <c r="A7" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="I4" s="31" t="s">
+      <c r="H7" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="K7" s="31" t="s">
         <v>634</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="L7" s="31" t="s">
         <v>635</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="M7" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="O7" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="P7" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>686</v>
+      </c>
+      <c r="U7" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="V7" s="33" t="s">
+        <v>713</v>
+      </c>
+      <c r="W7" s="33" t="s">
+        <v>646</v>
+      </c>
+      <c r="X7" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y7" s="33" t="s">
+        <v>714</v>
+      </c>
+      <c r="Z7" s="33" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA7" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB7" s="36" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC7" s="34" t="s">
+        <v>717</v>
+      </c>
+      <c r="AD7" s="34" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE7" s="34" t="s">
+        <v>654</v>
+      </c>
+      <c r="AF7" s="34" t="s">
+        <v>655</v>
+      </c>
+      <c r="AG7" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH7" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="AI7" s="34">
+        <v>131789</v>
+      </c>
+      <c r="AJ7" s="34">
+        <v>177368</v>
+      </c>
+      <c r="AK7" s="34">
+        <v>541</v>
+      </c>
+      <c r="AL7" s="34">
+        <v>995</v>
+      </c>
+      <c r="AM7" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN7" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="AO7" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="AP7" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ7" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR7" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="AS7" s="35" t="s">
+        <v>664</v>
+      </c>
+      <c r="AT7" s="35" t="s">
+        <v>665</v>
+      </c>
+      <c r="AU7" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="AV7" s="35" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="180">
+      <c r="A8" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>633</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>634</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="M8" s="31" t="s">
         <v>636</v>
       </c>
-      <c r="L4" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>675</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>639</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>676</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>678</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="T4" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="U4" s="46" t="s">
-        <v>646</v>
-      </c>
-      <c r="V4" s="46" t="s">
+      <c r="N8" s="31" t="s">
+        <v>637</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>638</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>726</v>
+      </c>
+      <c r="U8" s="33" t="s">
+        <v>727</v>
+      </c>
+      <c r="V8" s="33" t="s">
+        <v>728</v>
+      </c>
+      <c r="W8" s="33" t="s">
+        <v>688</v>
+      </c>
+      <c r="X8" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="W4" s="46" t="s">
-        <v>648</v>
-      </c>
-      <c r="X4" s="46" t="s">
-        <v>649</v>
-      </c>
-      <c r="Y4" s="46" t="s">
+      <c r="Y8" s="33" t="s">
+        <v>729</v>
+      </c>
+      <c r="Z8" s="33" t="s">
+        <v>730</v>
+      </c>
+      <c r="AA8" s="33" t="s">
         <v>650</v>
       </c>
-      <c r="Z4" s="46" t="s">
+      <c r="AB8" s="36" t="s">
         <v>651</v>
       </c>
-      <c r="AA4" s="49" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB4" s="47" t="s">
-        <v>653</v>
-      </c>
-      <c r="AC4" s="47" t="s">
-        <v>654</v>
-      </c>
-      <c r="AD4" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="AE4" s="47" t="s">
-        <v>656</v>
-      </c>
-      <c r="AF4" s="47" t="s">
+      <c r="AC8" s="34" t="s">
+        <v>731</v>
+      </c>
+      <c r="AD8" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="AE8" s="34" t="s">
+        <v>733</v>
+      </c>
+      <c r="AF8" s="34" t="s">
+        <v>734</v>
+      </c>
+      <c r="AG8" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="AG4" s="47" t="s">
-        <v>657</v>
-      </c>
-      <c r="AH4" s="47" t="s">
-        <v>679</v>
-      </c>
-      <c r="AI4" s="47" t="s">
-        <v>680</v>
-      </c>
-      <c r="AJ4" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="AK4" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="AL4" s="48" t="s">
-        <v>661</v>
-      </c>
-      <c r="AM4" s="48" t="s">
+      <c r="AH8" s="34" t="s">
+        <v>735</v>
+      </c>
+      <c r="AI8" s="34">
+        <v>232308</v>
+      </c>
+      <c r="AJ8" s="34">
+        <v>267441</v>
+      </c>
+      <c r="AK8" s="34" t="s">
+        <v>736</v>
+      </c>
+      <c r="AL8" s="34">
+        <v>1838</v>
+      </c>
+      <c r="AM8" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="AN8" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="AO8" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="AN4" s="48" t="s">
+      <c r="AP8" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ8" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR8" s="35" t="s">
         <v>663</v>
       </c>
-      <c r="AO4" s="48" t="s">
+      <c r="AS8" s="35" t="s">
+        <v>664</v>
+      </c>
+      <c r="AT8" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="AP4" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ4" s="48" t="s">
-        <v>664</v>
-      </c>
-      <c r="AR4" s="48" t="s">
-        <v>665</v>
-      </c>
-      <c r="AS4" s="48" t="s">
+      <c r="AU8" s="35" t="s">
         <v>666</v>
       </c>
-      <c r="AT4" s="48" t="s">
+      <c r="AV8" s="35" t="s">
         <v>667</v>
-      </c>
-      <c r="AU4" s="48" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:47" ht="165">
-      <c r="A5" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>636</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>638</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>639</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>640</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q5" s="31" t="s">
-        <v>642</v>
-      </c>
-      <c r="R5" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>689</v>
-      </c>
-      <c r="T5" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="U5" s="46" t="s">
-        <v>690</v>
-      </c>
-      <c r="V5" s="46" t="s">
-        <v>691</v>
-      </c>
-      <c r="W5" s="46" t="s">
-        <v>648</v>
-      </c>
-      <c r="X5" s="46" t="s">
-        <v>692</v>
-      </c>
-      <c r="Y5" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="Z5" s="46" t="s">
-        <v>651</v>
-      </c>
-      <c r="AA5" s="49" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB5" s="47" t="s">
-        <v>694</v>
-      </c>
-      <c r="AC5" s="47" t="s">
-        <v>695</v>
-      </c>
-      <c r="AD5" s="47" t="s">
-        <v>696</v>
-      </c>
-      <c r="AE5" s="47" t="s">
-        <v>697</v>
-      </c>
-      <c r="AF5" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG5" s="47" t="s">
-        <v>698</v>
-      </c>
-      <c r="AH5" s="47">
-        <v>178965</v>
-      </c>
-      <c r="AI5" s="47">
-        <v>218894</v>
-      </c>
-      <c r="AJ5" s="47" t="s">
-        <v>699</v>
-      </c>
-      <c r="AK5" s="47">
-        <v>1289</v>
-      </c>
-      <c r="AL5" s="48" t="s">
-        <v>661</v>
-      </c>
-      <c r="AM5" s="48" t="s">
-        <v>662</v>
-      </c>
-      <c r="AN5" s="48" t="s">
-        <v>663</v>
-      </c>
-      <c r="AO5" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP5" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ5" s="48" t="s">
-        <v>664</v>
-      </c>
-      <c r="AR5" s="48" t="s">
-        <v>665</v>
-      </c>
-      <c r="AS5" s="48" t="s">
-        <v>666</v>
-      </c>
-      <c r="AT5" s="48" t="s">
-        <v>667</v>
-      </c>
-      <c r="AU5" s="48" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" ht="255">
-      <c r="A6" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="K6" s="31" t="s">
-        <v>636</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>674</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>675</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>639</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>676</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>678</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>689</v>
-      </c>
-      <c r="T6" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="U6" s="46" t="s">
-        <v>705</v>
-      </c>
-      <c r="V6" s="46" t="s">
-        <v>691</v>
-      </c>
-      <c r="W6" s="46" t="s">
-        <v>648</v>
-      </c>
-      <c r="X6" s="46" t="s">
-        <v>692</v>
-      </c>
-      <c r="Y6" s="46" t="s">
-        <v>693</v>
-      </c>
-      <c r="Z6" s="46" t="s">
-        <v>651</v>
-      </c>
-      <c r="AA6" s="49" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB6" s="47" t="s">
-        <v>694</v>
-      </c>
-      <c r="AC6" s="47" t="s">
-        <v>695</v>
-      </c>
-      <c r="AD6" s="47" t="s">
-        <v>696</v>
-      </c>
-      <c r="AE6" s="47" t="s">
-        <v>697</v>
-      </c>
-      <c r="AF6" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG6" s="47" t="s">
-        <v>706</v>
-      </c>
-      <c r="AH6" s="47" t="s">
-        <v>707</v>
-      </c>
-      <c r="AI6" s="47" t="s">
-        <v>708</v>
-      </c>
-      <c r="AJ6" s="47">
-        <v>725</v>
-      </c>
-      <c r="AK6" s="47">
-        <v>1295</v>
-      </c>
-      <c r="AL6" s="48" t="s">
-        <v>661</v>
-      </c>
-      <c r="AM6" s="48" t="s">
-        <v>662</v>
-      </c>
-      <c r="AN6" s="48" t="s">
-        <v>663</v>
-      </c>
-      <c r="AO6" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP6" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ6" s="48" t="s">
-        <v>664</v>
-      </c>
-      <c r="AR6" s="48" t="s">
-        <v>665</v>
-      </c>
-      <c r="AS6" s="48" t="s">
-        <v>666</v>
-      </c>
-      <c r="AT6" s="48" t="s">
-        <v>667</v>
-      </c>
-      <c r="AU6" s="48" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:47" ht="165">
-      <c r="A7" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>636</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>714</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>715</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>639</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>716</v>
-      </c>
-      <c r="P7" s="31" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>642</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>689</v>
-      </c>
-      <c r="T7" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="U7" s="46" t="s">
-        <v>718</v>
-      </c>
-      <c r="V7" s="46" t="s">
-        <v>647</v>
-      </c>
-      <c r="W7" s="46" t="s">
-        <v>648</v>
-      </c>
-      <c r="X7" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="Y7" s="46" t="s">
-        <v>720</v>
-      </c>
-      <c r="Z7" s="46" t="s">
-        <v>651</v>
-      </c>
-      <c r="AA7" s="49" t="s">
-        <v>721</v>
-      </c>
-      <c r="AB7" s="47" t="s">
-        <v>722</v>
-      </c>
-      <c r="AC7" s="47" t="s">
-        <v>654</v>
-      </c>
-      <c r="AD7" s="47" t="s">
-        <v>655</v>
-      </c>
-      <c r="AE7" s="47" t="s">
-        <v>656</v>
-      </c>
-      <c r="AF7" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG7" s="47" t="s">
-        <v>657</v>
-      </c>
-      <c r="AH7" s="47">
-        <v>131789</v>
-      </c>
-      <c r="AI7" s="47">
-        <v>177368</v>
-      </c>
-      <c r="AJ7" s="47">
-        <v>541</v>
-      </c>
-      <c r="AK7" s="47">
-        <v>995</v>
-      </c>
-      <c r="AL7" s="48" t="s">
-        <v>661</v>
-      </c>
-      <c r="AM7" s="48" t="s">
-        <v>662</v>
-      </c>
-      <c r="AN7" s="48" t="s">
-        <v>663</v>
-      </c>
-      <c r="AO7" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP7" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ7" s="48" t="s">
-        <v>664</v>
-      </c>
-      <c r="AR7" s="48" t="s">
-        <v>665</v>
-      </c>
-      <c r="AS7" s="48" t="s">
-        <v>666</v>
-      </c>
-      <c r="AT7" s="48" t="s">
-        <v>667</v>
-      </c>
-      <c r="AU7" s="48" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" ht="165">
-      <c r="A8" s="4" t="s">
-        <v>723</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>634</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>635</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>636</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>637</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>638</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>639</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>731</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>642</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>643</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="T8" s="46" t="s">
-        <v>733</v>
-      </c>
-      <c r="U8" s="46" t="s">
-        <v>734</v>
-      </c>
-      <c r="V8" s="46" t="s">
-        <v>691</v>
-      </c>
-      <c r="W8" s="46" t="s">
-        <v>648</v>
-      </c>
-      <c r="X8" s="46" t="s">
-        <v>735</v>
-      </c>
-      <c r="Y8" s="46" t="s">
-        <v>736</v>
-      </c>
-      <c r="Z8" s="46" t="s">
-        <v>651</v>
-      </c>
-      <c r="AA8" s="49" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB8" s="47" t="s">
-        <v>737</v>
-      </c>
-      <c r="AC8" s="47" t="s">
-        <v>738</v>
-      </c>
-      <c r="AD8" s="47" t="s">
-        <v>739</v>
-      </c>
-      <c r="AE8" s="47" t="s">
-        <v>740</v>
-      </c>
-      <c r="AF8" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG8" s="47" t="s">
-        <v>741</v>
-      </c>
-      <c r="AH8" s="47">
-        <v>232308</v>
-      </c>
-      <c r="AI8" s="47">
-        <v>267441</v>
-      </c>
-      <c r="AJ8" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="AK8" s="47">
-        <v>1838</v>
-      </c>
-      <c r="AL8" s="48" t="s">
-        <v>661</v>
-      </c>
-      <c r="AM8" s="48" t="s">
-        <v>743</v>
-      </c>
-      <c r="AN8" s="48" t="s">
-        <v>663</v>
-      </c>
-      <c r="AO8" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP8" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ8" s="48" t="s">
-        <v>664</v>
-      </c>
-      <c r="AR8" s="48" t="s">
-        <v>665</v>
-      </c>
-      <c r="AS8" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT8" s="48" t="s">
-        <v>667</v>
-      </c>
-      <c r="AU8" s="48" t="s">
-        <v>668</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AK1"/>
-    <mergeCell ref="AL1:AU1"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="J1:T1"/>
+    <mergeCell ref="U1:AB1"/>
+    <mergeCell ref="AC1:AL1"/>
+    <mergeCell ref="AM1:AV1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="AA3" r:id="rId1" xr:uid="{28D35193-C3AB-4A1A-A701-4694FDFE8EFF}"/>
-    <hyperlink ref="AA4" r:id="rId2" xr:uid="{99D80102-0EE7-4655-912D-9A6083F1D70A}"/>
-    <hyperlink ref="AA5" r:id="rId3" xr:uid="{D20321E4-3B79-42E2-A401-A57AA9F0AD0F}"/>
-    <hyperlink ref="AA6" r:id="rId4" xr:uid="{5039E6CC-D9AB-4122-A286-A7E21E0153C6}"/>
-    <hyperlink ref="AA7" r:id="rId5" xr:uid="{CC87BD8F-4078-41BF-A893-7826D18D86F5}"/>
-    <hyperlink ref="AA8" r:id="rId6" xr:uid="{DF168035-974D-47F7-84D4-A383E4809024}"/>
+    <hyperlink ref="AB3" r:id="rId1" xr:uid="{28D35193-C3AB-4A1A-A701-4694FDFE8EFF}"/>
+    <hyperlink ref="AB4" r:id="rId2" xr:uid="{99D80102-0EE7-4655-912D-9A6083F1D70A}"/>
+    <hyperlink ref="AB5" r:id="rId3" xr:uid="{D20321E4-3B79-42E2-A401-A57AA9F0AD0F}"/>
+    <hyperlink ref="AB6" r:id="rId4" xr:uid="{5039E6CC-D9AB-4122-A286-A7E21E0153C6}"/>
+    <hyperlink ref="AB7" r:id="rId5" xr:uid="{CC87BD8F-4078-41BF-A893-7826D18D86F5}"/>
+    <hyperlink ref="AB8" r:id="rId6" xr:uid="{DF168035-974D-47F7-84D4-A383E4809024}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20323,63 +20336,63 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="35" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="40" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="41" t="s">
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="32" t="s">
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="34"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="39"/>
     </row>
     <row r="2" spans="1:47" ht="90">
       <c r="A2" s="22" t="s">
@@ -20547,63 +20560,63 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47" ht="15" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="35" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="40" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="41" t="s">
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="32" t="s">
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="34"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="39"/>
     </row>
     <row r="2" spans="1:47" ht="90">
       <c r="A2" s="22" t="s">
@@ -20771,63 +20784,63 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:47">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="35" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="40" t="s">
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="41" t="s">
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="32" t="s">
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="34"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="38"/>
+      <c r="AQ1" s="38"/>
+      <c r="AR1" s="38"/>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="39"/>
     </row>
     <row r="2" spans="1:47" ht="90">
       <c r="A2" s="22" t="s">
